--- a/data/chatbot_token_analysis.xlsx
+++ b/data/chatbot_token_analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Mresult\Phenomix\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PrinciaFernandes\Mresult\Phenomix\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50A9AA5-84D1-4369-A702-3469FEF479EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F428D6E-F8EA-4B98-A9F3-94D2389698D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,6 +85,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -103,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -126,16 +127,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,7 +470,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,6 +480,7 @@
     <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -466,10 +496,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -487,12 +517,12 @@
         <v>1014</v>
       </c>
       <c r="E2">
-        <f>0.0001*B2</f>
-        <v>9.2499999999999999E-2</v>
+        <f>0.0000001*B2</f>
+        <v>9.2499999999999999E-5</v>
       </c>
       <c r="F2">
-        <f>0.0004*C2</f>
-        <v>3.56E-2</v>
+        <f>0.0000004*C2</f>
+        <v>3.5599999999999998E-5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -509,12 +539,12 @@
         <v>4704</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E5" si="0">0.0001*B3</f>
-        <v>0.4642</v>
+        <f t="shared" ref="E3:E6" si="0">0.0000001*B3</f>
+        <v>4.6419999999999995E-4</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F6" si="1">0.0004*C3</f>
-        <v>2.4800000000000003E-2</v>
+        <f t="shared" ref="F3:F6" si="1">0.0000004*C3</f>
+        <v>2.48E-5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -532,11 +562,11 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.43</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>2.4400000000000002E-2</v>
+        <v>2.44E-5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -554,11 +584,11 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.37</v>
+        <v>3.6999999999999999E-4</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>1.4800000000000001E-2</v>
+        <v>1.4799999999999999E-5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -575,25 +605,25 @@
         <v>3455</v>
       </c>
       <c r="E6">
-        <f>0.0001*B6</f>
-        <v>0.34370000000000001</v>
+        <f t="shared" si="0"/>
+        <v>3.4370000000000001E-4</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>7.2000000000000007E-3</v>
+        <v>7.1999999999999997E-6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
-        <v>1.7004000000000001</v>
-      </c>
-      <c r="F7">
+        <v>1.7003999999999997E-3</v>
+      </c>
+      <c r="F7" s="2">
         <f>SUM(F2:F6)</f>
-        <v>0.10679999999999999</v>
+        <v>1.0679999999999999E-4</v>
       </c>
     </row>
   </sheetData>
